--- a/data/trans_orig/P33B_R3-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P33B_R3-Clase-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>79552</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>63853</v>
+        <v>63662</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>98339</v>
+        <v>96379</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1444783304076056</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1159656873845732</v>
+        <v>0.1156184934413393</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1785982509788166</v>
+        <v>0.1750384836391296</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>115</v>
@@ -762,19 +762,19 @@
         <v>76488</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>64683</v>
+        <v>63882</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>91452</v>
+        <v>88333</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1566057486452284</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1324356791472806</v>
+        <v>0.1307958692173398</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1872445176529518</v>
+        <v>0.1808578641772475</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>198</v>
@@ -783,19 +783,19 @@
         <v>156040</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>134848</v>
+        <v>134676</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>177967</v>
+        <v>177327</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1501790011468431</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.12978261927935</v>
+        <v>0.1296167709957549</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1712823423679076</v>
+        <v>0.1706659305011083</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>471066</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>452279</v>
+        <v>454239</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>486765</v>
+        <v>486956</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8555216695923944</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8214017490211833</v>
+        <v>0.8249615163608706</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8840343126154269</v>
+        <v>0.8843815065586609</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>571</v>
@@ -833,19 +833,19 @@
         <v>411923</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>396959</v>
+        <v>400078</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>423728</v>
+        <v>424529</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.8433942513547716</v>
+        <v>0.8433942513547715</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8127554823470482</v>
+        <v>0.8191421358227525</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8675643208527195</v>
+        <v>0.8692041307826602</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1042</v>
@@ -854,19 +854,19 @@
         <v>882989</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>861062</v>
+        <v>861702</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>904181</v>
+        <v>904353</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.849820998853157</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8287176576320926</v>
+        <v>0.8293340694988917</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8702173807206498</v>
+        <v>0.870383229004245</v>
       </c>
     </row>
     <row r="6">
@@ -958,19 +958,19 @@
         <v>62074</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>48105</v>
+        <v>47761</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>78496</v>
+        <v>77391</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1287239684022676</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.09975573407077955</v>
+        <v>0.09904399748117446</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1627790916558678</v>
+        <v>0.1604866293808753</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>100</v>
@@ -979,19 +979,19 @@
         <v>68529</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>56505</v>
+        <v>57169</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>81878</v>
+        <v>81945</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1619525921523601</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1335353451911075</v>
+        <v>0.1351050139516173</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1934989616156141</v>
+        <v>0.1936576663821601</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>168</v>
@@ -1000,19 +1000,19 @@
         <v>130603</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>113045</v>
+        <v>111308</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>151453</v>
+        <v>150380</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1442540809389462</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1248606961422585</v>
+        <v>0.1229421050656468</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1672833095035825</v>
+        <v>0.1660982701075243</v>
       </c>
     </row>
     <row r="8">
@@ -1029,19 +1029,19 @@
         <v>420150</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>403728</v>
+        <v>404833</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>434119</v>
+        <v>434463</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.8712760315977324</v>
+        <v>0.8712760315977323</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8372209083441322</v>
+        <v>0.8395133706191245</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.90024426592922</v>
+        <v>0.9009560025188255</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>490</v>
@@ -1050,19 +1050,19 @@
         <v>354614</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>341265</v>
+        <v>341198</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>366638</v>
+        <v>365974</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8380474078476398</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.806501038384386</v>
+        <v>0.8063423336178399</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8664646548088926</v>
+        <v>0.8648949860483828</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>902</v>
@@ -1071,19 +1071,19 @@
         <v>774764</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>753914</v>
+        <v>754987</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>792322</v>
+        <v>794059</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.8557459190610537</v>
+        <v>0.8557459190610538</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8327166904964176</v>
+        <v>0.8339017298924758</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8751393038577414</v>
+        <v>0.8770578949343533</v>
       </c>
     </row>
     <row r="9">
@@ -1175,19 +1175,19 @@
         <v>94556</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>78934</v>
+        <v>78888</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>113921</v>
+        <v>112993</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2004948246044146</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1673715166393609</v>
+        <v>0.1672734184964655</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2415572830280414</v>
+        <v>0.2395879358272161</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>81</v>
@@ -1196,19 +1196,19 @@
         <v>53187</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>43901</v>
+        <v>43153</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>64587</v>
+        <v>63046</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2836665336050038</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2341406959765015</v>
+        <v>0.2301525014892242</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3444686329703919</v>
+        <v>0.3362496287145296</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>189</v>
@@ -1217,19 +1217,19 @@
         <v>147742</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>127133</v>
+        <v>129162</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>167594</v>
+        <v>169104</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2241547497800266</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1928857127253023</v>
+        <v>0.1959648147334218</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2542742464472707</v>
+        <v>0.2565643610708676</v>
       </c>
     </row>
     <row r="11">
@@ -1246,19 +1246,19 @@
         <v>377056</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>357691</v>
+        <v>358619</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>392678</v>
+        <v>392724</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.7995051753955855</v>
+        <v>0.7995051753955854</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7584427169719585</v>
+        <v>0.7604120641727837</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.832628483360639</v>
+        <v>0.8327265815035344</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>208</v>
@@ -1267,19 +1267,19 @@
         <v>134310</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>122910</v>
+        <v>124451</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>143596</v>
+        <v>144344</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7163334663949962</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.655531367029608</v>
+        <v>0.6637503712854708</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7658593040234984</v>
+        <v>0.7698474985107758</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>588</v>
@@ -1288,19 +1288,19 @@
         <v>511367</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>491515</v>
+        <v>490005</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>531976</v>
+        <v>529947</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.7758452502199735</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7457257535527292</v>
+        <v>0.7434356389291323</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8071142872746975</v>
+        <v>0.8040351852665782</v>
       </c>
     </row>
     <row r="12">
@@ -1392,19 +1392,19 @@
         <v>191019</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>167330</v>
+        <v>166705</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>219930</v>
+        <v>219849</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1687684689464201</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.147838869963589</v>
+        <v>0.1472862549771745</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1943115020988267</v>
+        <v>0.1942402099023814</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>266</v>
@@ -1413,19 +1413,19 @@
         <v>176234</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>156812</v>
+        <v>157700</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>195572</v>
+        <v>196215</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2046349896537762</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1820834168065823</v>
+        <v>0.1831147860127483</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2270890425082058</v>
+        <v>0.2278360430190647</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>480</v>
@@ -1434,19 +1434,19 @@
         <v>367253</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>333879</v>
+        <v>336049</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>400407</v>
+        <v>400859</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1842666210547553</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1675211120830717</v>
+        <v>0.168609901737216</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2009011088815862</v>
+        <v>0.2011281121548128</v>
       </c>
     </row>
     <row r="14">
@@ -1463,19 +1463,19 @@
         <v>940824</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>911913</v>
+        <v>911994</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>964513</v>
+        <v>965138</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8312315310535798</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8056884979011734</v>
+        <v>0.8057597900976188</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.852161130036411</v>
+        <v>0.8527137450228259</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>964</v>
@@ -1484,19 +1484,19 @@
         <v>684977</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>665639</v>
+        <v>664996</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>704399</v>
+        <v>703511</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.7953650103462239</v>
+        <v>0.7953650103462238</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7729109574917943</v>
+        <v>0.7721639569809351</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8179165831934181</v>
+        <v>0.8168852139872516</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1868</v>
@@ -1505,19 +1505,19 @@
         <v>1625801</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1592647</v>
+        <v>1592195</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1659175</v>
+        <v>1657005</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.8157333789452446</v>
+        <v>0.8157333789452447</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7990988911184137</v>
+        <v>0.7988718878451874</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8324788879169284</v>
+        <v>0.8313900982627843</v>
       </c>
     </row>
     <row r="15">
@@ -1609,19 +1609,19 @@
         <v>90443</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>73207</v>
+        <v>75237</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>111380</v>
+        <v>111614</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1595440141713051</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1291389680143516</v>
+        <v>0.1327207471307535</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1964775144964067</v>
+        <v>0.1968904294311808</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>396</v>
@@ -1630,19 +1630,19 @@
         <v>240800</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>219389</v>
+        <v>221102</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>261679</v>
+        <v>263584</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2900755296659747</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2642834668939238</v>
+        <v>0.2663475949276325</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3152280172877654</v>
+        <v>0.3175230846752788</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>496</v>
@@ -1651,19 +1651,19 @@
         <v>331242</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>302138</v>
+        <v>301880</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>361487</v>
+        <v>358720</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2371081300176338</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.216275124136314</v>
+        <v>0.2160901135666013</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2587576775239501</v>
+        <v>0.2567768330244777</v>
       </c>
     </row>
     <row r="17">
@@ -1680,19 +1680,19 @@
         <v>476439</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>455502</v>
+        <v>455268</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>493675</v>
+        <v>491645</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.8404559858286949</v>
+        <v>0.8404559858286947</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8035224855035934</v>
+        <v>0.8031095705688192</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8708610319856482</v>
+        <v>0.8672792528692466</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>893</v>
@@ -1701,19 +1701,19 @@
         <v>589327</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>568448</v>
+        <v>566543</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>610738</v>
+        <v>609025</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7099244703340254</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6847719827122345</v>
+        <v>0.6824769153247211</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7357165331060763</v>
+        <v>0.7336524050723674</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1339</v>
@@ -1722,19 +1722,19 @@
         <v>1065767</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1035522</v>
+        <v>1038289</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1094871</v>
+        <v>1095129</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.7628918699823664</v>
+        <v>0.7628918699823662</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7412423224760502</v>
+        <v>0.743223166975522</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7837248758636861</v>
+        <v>0.7839098864333982</v>
       </c>
     </row>
     <row r="18">
@@ -1826,19 +1826,19 @@
         <v>14929</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>7282</v>
+        <v>6843</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>31106</v>
+        <v>29291</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.0629293347892467</v>
+        <v>0.06292933478924669</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.03069417000034009</v>
+        <v>0.02884370504838458</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1311217315748777</v>
+        <v>0.123472200091756</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>308</v>
@@ -1847,19 +1847,19 @@
         <v>191926</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>172271</v>
+        <v>173680</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>213207</v>
+        <v>214359</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.2273245388127863</v>
+        <v>0.2273245388127864</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2040447507279155</v>
+        <v>0.2057133431168827</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2525309312744038</v>
+        <v>0.2538947495029387</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>319</v>
@@ -1868,19 +1868,19 @@
         <v>206854</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>183896</v>
+        <v>182981</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>232773</v>
+        <v>235131</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1912646321862738</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1700368457774903</v>
+        <v>0.1691901082646651</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.215229377028707</v>
+        <v>0.2174101286232943</v>
       </c>
     </row>
     <row r="20">
@@ -1897,19 +1897,19 @@
         <v>222299</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>206122</v>
+        <v>207937</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>229946</v>
+        <v>230385</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.9370706652107533</v>
+        <v>0.9370706652107532</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8688782684251223</v>
+        <v>0.876527799908244</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.96930582999966</v>
+        <v>0.9711562949516155</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>851</v>
@@ -1918,19 +1918,19 @@
         <v>652355</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>631074</v>
+        <v>629922</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>672010</v>
+        <v>670601</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.7726754611872135</v>
+        <v>0.7726754611872136</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.747469068725596</v>
+        <v>0.7461052504970612</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7959552492720844</v>
+        <v>0.7942866568831169</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>952</v>
@@ -1939,19 +1939,19 @@
         <v>874655</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>848736</v>
+        <v>846378</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>897613</v>
+        <v>898528</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8087353678137262</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.784770622971293</v>
+        <v>0.7825898713767058</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8299631542225095</v>
+        <v>0.8308098917353349</v>
       </c>
     </row>
     <row r="21">
@@ -2043,19 +2043,19 @@
         <v>532572</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>491657</v>
+        <v>492590</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>577950</v>
+        <v>583030</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1547992896976307</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1429065804996787</v>
+        <v>0.1431780143024008</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1679888253277808</v>
+        <v>0.169465488365099</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>1266</v>
@@ -2064,19 +2064,19 @@
         <v>807163</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>765178</v>
+        <v>765378</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>847853</v>
+        <v>847451</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2220732498372381</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2105220311386611</v>
+        <v>0.2105769618446221</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2332682647723291</v>
+        <v>0.2331577046870682</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1850</v>
@@ -2085,19 +2085,19 @@
         <v>1339736</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1281583</v>
+        <v>1277839</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1400381</v>
+        <v>1403656</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.1893598577945034</v>
+        <v>0.1893598577945033</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1811404399955693</v>
+        <v>0.1806112880721546</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.197931517653527</v>
+        <v>0.1983944438525491</v>
       </c>
     </row>
     <row r="23">
@@ -2114,19 +2114,19 @@
         <v>2907834</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>2862456</v>
+        <v>2857376</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>2948749</v>
+        <v>2947816</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.8452007103023694</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.8320111746722191</v>
+        <v>0.8305345116349006</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.8570934195003213</v>
+        <v>0.8568219856975993</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>3977</v>
@@ -2135,19 +2135,19 @@
         <v>2827507</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>2786817</v>
+        <v>2787219</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>2869492</v>
+        <v>2869292</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.7779267501627619</v>
+        <v>0.7779267501627618</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.7667317352276709</v>
+        <v>0.7668422953129319</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.7894779688613387</v>
+        <v>0.7894230381553778</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>6691</v>
@@ -2156,19 +2156,19 @@
         <v>5735341</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>5674696</v>
+        <v>5671421</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>5793494</v>
+        <v>5797238</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.8106401422054966</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.8020684823464729</v>
+        <v>0.8016055561474509</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.8188595600044307</v>
+        <v>0.8193887119278453</v>
       </c>
     </row>
     <row r="24">
